--- a/数据整理/stocks/A股/上证主板/600673-东阳光.xlsx
+++ b/数据整理/stocks/A股/上证主板/600673-东阳光.xlsx
@@ -1,90 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="2021-Q2" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
-  <si>
-    <t>基金代码</t>
-  </si>
-  <si>
-    <t>基金名称</t>
-  </si>
-  <si>
-    <t>基金金额</t>
-  </si>
-  <si>
-    <t>股票总仓位</t>
-  </si>
-  <si>
-    <t>仓位占比</t>
-  </si>
-  <si>
-    <t>持有市值(亿元)</t>
-  </si>
-  <si>
-    <t>仓位排名</t>
-  </si>
-  <si>
-    <t>160620</t>
-  </si>
-  <si>
-    <t>鹏华中证A股资源产业指数（LOF）</t>
-  </si>
-  <si>
-    <t>1.24</t>
-  </si>
-  <si>
-    <t>94.14</t>
-  </si>
-  <si>
-    <t>2.10</t>
-  </si>
-  <si>
-    <t>0.0260</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -107,21 +68,97 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -409,63 +446,569 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>160620</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏华中证A股资源产业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0260</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>10</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001410</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>信达澳银新能源产业股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>148.10</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.58</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.2363</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>012608</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>信达澳银领先智选混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>49.92</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>71.01</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7238</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006257</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>信达澳银先进智造股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>31.51</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>85.54</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4758</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>003318</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>景顺长城中证500行业中性低波动指数</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>16.13</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2049</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>007484</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>信达澳银核心科技混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>11.59</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>84.01</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1750</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009511</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>信达澳银研究优选混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>11.23</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>87.04</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1696</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009437</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>信达澳银科技创新一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.90</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.74</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1042</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>160620</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>鹏华中证A股资源产业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1017</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>510170</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国联安上证大宗商品股票ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>97.26</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0742</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>512260</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华安中证500行业中性低波动ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>95.81</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009438</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>信达澳银科技创新一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>89.74</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0159</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600673-东阳光.xlsx
+++ b/数据整理/stocks/A股/上证主板/600673-东阳光.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1011,4 +1012,72 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>11</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600673-东阳光.xlsx
+++ b/数据整理/stocks/A股/上证主板/600673-东阳光.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1020,7 +1021,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1031,17 +1032,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1051,14 +1072,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>11</v>
-      </c>
-      <c r="D2" t="n">
-        <v>4.3</v>
+          <t>001410</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>信达澳银新能源产业股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>174.77</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.6216</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1067,13 +1110,461 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>012608</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>信达澳银领先智选混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>48.22</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8631</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011188</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>信达澳银星奕混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>46.87</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7874</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006257</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>信达澳银先进智造股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>35.79</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5547</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>007484</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>信达澳银核心科技混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>14.90</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2056</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011223</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>信达澳银星奕混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>11.75</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1974</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009511</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>信达澳银研究优选混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>12.31</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1957</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009437</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>信达澳银科技创新一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>9.92</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>99.89</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1696</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009438</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>信达澳银科技创新一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>99.89</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0183</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005437</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>易方达易百智能量化策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005438</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>易方达易百智能量化策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>11</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5.63</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>11</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>1</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>0.03</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600673-东阳光.xlsx
+++ b/数据整理/stocks/A股/上证主板/600673-东阳光.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1495,7 +1496,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1506,17 +1507,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1526,14 +1547,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>11</v>
-      </c>
-      <c r="D2" t="n">
-        <v>5.63</v>
+          <t>001410</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>信达澳银新能源产业股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>140.41</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.06</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.1623</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -1542,14 +1585,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>11</v>
-      </c>
-      <c r="D3" t="n">
-        <v>4.3</v>
+          <t>012608</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>信达澳银领先智选混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>38.78</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.57</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6903</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -1558,13 +1623,515 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>011188</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>信达澳银星奕混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>35.73</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6360</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006257</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>信达澳银先进智造股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>21.53</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3639</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011223</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>信达澳银星奕混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>9.21</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1639</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009511</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>信达澳银研究优选混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>9.41</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.12</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1619</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009437</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>信达澳银科技创新一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0991</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005632</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>鹏华量化先锋混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0530</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>014133</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>工银中证500六个月持有指数增强A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0362</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>014344</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>鹏华中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0328</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009438</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>信达澳银科技创新一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>014134</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>工银中证500六个月持有指数增强C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>014345</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>鹏华中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0129</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>13</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.44</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>11</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5.63</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>11</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>1</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.03</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600673-东阳光.xlsx
+++ b/数据整理/stocks/A股/上证主板/600673-东阳光.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2046,7 +2047,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2057,17 +2058,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2077,14 +2098,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>13</v>
-      </c>
-      <c r="D2" t="n">
-        <v>4.44</v>
+          <t>001410</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>信达澳银新能源产业股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>148.83</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.9199</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -2093,14 +2136,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>11</v>
-      </c>
-      <c r="D3" t="n">
-        <v>5.63</v>
+          <t>010966</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国成长领航混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>52.43</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.7407</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -2109,14 +2174,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>11</v>
-      </c>
-      <c r="D4" t="n">
-        <v>4.3</v>
+          <t>001985</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国低碳新经济混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>33.95</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.7179</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -2125,13 +2212,1139 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>010662</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国均衡优选混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>50.86</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.05</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.5461</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009693</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国积极成长一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>18.99</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>95.11</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.9628</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>012608</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>信达澳银领先智选混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>41.50</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5520</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000478</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>建信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>57.26</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>83.86</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5268</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011188</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>信达澳银星奕混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>38.66</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5064</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010861</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>长信企业优选一年持有期灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>9.85</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>76.10</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2847</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>006257</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>信达澳银先进智造股票</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>24.66</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.73</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2614</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005589</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>长信企业精选两年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>77.24</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1817</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009511</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>信达澳银研究优选混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>10.08</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1341</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011223</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>信达澳银星奕混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>9.36</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1226</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>233009</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>大摩多因子精选策略混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>7.12</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>86.73</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1168</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>014344</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>鹏华中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>89.13</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0668</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009437</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>信达澳银科技创新一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0586</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>005633</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>建信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>83.86</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0343</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>014133</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>工银中证500六个月持有指数增强A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0205</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011306</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>富国低碳新经济混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0187</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>014345</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>鹏华中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>89.13</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0175</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>003241</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>创金合信量化发现灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>91.22</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>014134</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>工银中证500六个月持有指数增强C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0114</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>009438</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>信达澳银科技创新一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010154</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中加中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.12</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>003242</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>创金合信量化发现灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>91.22</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010153</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>中加中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.12</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>012297</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>东兴宸瑞量化混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>89.73</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>014954</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>信达澳银研究优选混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>012298</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>东兴宸瑞量化混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>89.73</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>005021</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>渤海汇金量化汇盈灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>91.85</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>30</v>
+      </c>
+      <c r="D2" t="n">
+        <v>10.85</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>13</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.44</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>11</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5.63</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>11</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>1</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.03</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600673-东阳光.xlsx
+++ b/数据整理/stocks/A股/上证主板/600673-东阳光.xlsx
@@ -7,11 +7,12 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,14 +487,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>30</v>
       </c>
       <c r="D2" t="n">
-        <v>10.85</v>
+        <v>19.96</v>
       </c>
     </row>
     <row r="3">
@@ -502,14 +503,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="D3" t="n">
-        <v>4.44</v>
+        <v>10.85</v>
       </c>
     </row>
     <row r="4">
@@ -518,14 +519,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D4" t="n">
-        <v>5.63</v>
+        <v>4.44</v>
       </c>
     </row>
     <row r="5">
@@ -534,14 +535,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>11</v>
       </c>
       <c r="D5" t="n">
-        <v>4.3</v>
+        <v>5.63</v>
       </c>
     </row>
     <row r="6">
@@ -550,13 +551,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>11</v>
+      </c>
+      <c r="D6" t="n">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>1</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -622,36 +639,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001410</t>
+          <t>011056</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>信达澳银新能源产业股票</t>
+          <t>博时汇兴回报一年持有期灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>148.83</t>
+          <t>96.44</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.48</t>
+          <t>52.92</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.29</t>
+          <t>5.06</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.9199</t>
+          <t>4.8799</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -670,26 +687,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>52.43</t>
+          <t>46.16</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>92.87</t>
+          <t>88.70</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.32</t>
+          <t>6.35</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.7407</t>
+          <t>2.9312</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -698,32 +715,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>001985</t>
+          <t>010662</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>富国低碳新经济混合A</t>
+          <t>富国均衡优选混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>33.95</t>
+          <t>44.52</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>92.54</t>
+          <t>87.36</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5.06</t>
+          <t>5.72</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.7179</t>
+          <t>2.5465</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -736,36 +753,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>010662</t>
+          <t>001410</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>富国均衡优选混合</t>
+          <t>信澳新能源产业股票</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>50.86</t>
+          <t>116.40</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>90.05</t>
+          <t>93.65</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.04</t>
+          <t>1.90</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1.5461</t>
+          <t>2.2116</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -774,36 +791,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>009693</t>
+          <t>001985</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>富国积极成长一年定期开放混合</t>
+          <t>富国低碳新经济混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>18.99</t>
+          <t>22.20</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>95.11</t>
+          <t>92.54</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>5.07</t>
+          <t>7.55</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.9628</t>
+          <t>1.6761</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -812,36 +829,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>012608</t>
+          <t>011177</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>信达澳银领先智选混合型证券投资基金</t>
+          <t>博时汇融回报一年持有期混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>41.50</t>
+          <t>25.95</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>94.47</t>
+          <t>60.91</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1.33</t>
+          <t>4.25</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.5520</t>
+          <t>1.1029</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8">
@@ -850,36 +867,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>000478</t>
+          <t>009693</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>建信中证500指数增强A</t>
+          <t>富国积极成长一年定期开放混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>57.26</t>
+          <t>12.30</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>83.86</t>
+          <t>97.80</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0.92</t>
+          <t>7.66</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.5268</t>
+          <t>0.9422</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -888,36 +905,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>011188</t>
+          <t>014254</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>信达澳银星奕混合A</t>
+          <t>信澳智远三年持有期混合A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>38.66</t>
+          <t>36.34</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>94.47</t>
+          <t>86.96</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>1.31</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.5064</t>
+          <t>0.6541</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10">
@@ -926,36 +943,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>010861</t>
+          <t>012608</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>长信企业优选一年持有期灵活配置混合</t>
+          <t>信澳领先智选混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>9.85</t>
+          <t>33.22</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>76.10</t>
+          <t>92.57</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2.89</t>
+          <t>1.86</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.2847</t>
+          <t>0.6179</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11">
@@ -964,36 +981,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>006257</t>
+          <t>007484</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>信达澳银先进智造股票</t>
+          <t>信澳核心科技混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>24.66</t>
+          <t>23.33</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>90.73</t>
+          <t>94.48</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>1.06</t>
+          <t>2.03</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.2614</t>
+          <t>0.4736</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12">
@@ -1002,36 +1019,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>005589</t>
+          <t>011188</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>长信企业精选两年定期开放灵活配置混合</t>
+          <t>信澳星奕混合A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>6.33</t>
+          <t>23.94</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>77.24</t>
+          <t>93.29</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2.87</t>
+          <t>1.84</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.1817</t>
+          <t>0.4405</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13">
@@ -1040,36 +1057,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>009511</t>
+          <t>006257</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>信达澳银研究优选混合</t>
+          <t>信澳先进智造股票</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>10.08</t>
+          <t>25.85</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>94.49</t>
+          <t>92.65</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>1.33</t>
+          <t>1.43</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.1341</t>
+          <t>0.3697</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14">
@@ -1078,36 +1095,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>011223</t>
+          <t>012500</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>信达澳银星奕混合C</t>
+          <t>博时汇荣回报灵活配置混合A</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>9.36</t>
+          <t>5.88</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>94.47</t>
+          <t>59.93</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>1.31</t>
+          <t>5.03</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.1226</t>
+          <t>0.2958</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15">
@@ -1116,36 +1133,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>233009</t>
+          <t>009511</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>大摩多因子精选策略混合</t>
+          <t>信澳研究优选混合A</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>7.12</t>
+          <t>10.05</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>86.73</t>
+          <t>89.66</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>1.64</t>
+          <t>1.50</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.1168</t>
+          <t>0.1508</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16">
@@ -1154,36 +1171,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>014344</t>
+          <t>011223</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>鹏华中证500指数增强A</t>
+          <t>信澳星奕混合C</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>4.05</t>
+          <t>7.06</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>89.13</t>
+          <t>93.29</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>1.84</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.0668</t>
+          <t>0.1299</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17">
@@ -1192,36 +1209,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>009437</t>
+          <t>014255</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>信达澳银科技创新一年定期开放混合A</t>
+          <t>信澳智远三年持有期混合C</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>4.69</t>
+          <t>6.26</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>94.51</t>
+          <t>86.96</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.0586</t>
+          <t>0.1127</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18">
@@ -1230,36 +1247,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>005633</t>
+          <t>004448</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>建信中证500指数增强C</t>
+          <t>博时汇智回报灵活配置混合</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>3.73</t>
+          <t>1.77</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>83.86</t>
+          <t>67.69</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>0.92</t>
+          <t>5.15</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.0343</t>
+          <t>0.0912</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19">
@@ -1268,36 +1285,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>014133</t>
+          <t>012147</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>工银中证500六个月持有指数增强A</t>
+          <t>富国大盘核心资产混合</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>1.92</t>
+          <t>2.01</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>94.04</t>
+          <t>70.23</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>1.07</t>
+          <t>3.12</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.0205</t>
+          <t>0.0627</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20">
@@ -1306,36 +1323,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>011306</t>
+          <t>009437</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>富国低碳新经济混合C</t>
+          <t>信澳科技创新一年定期开放混合A</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0.37</t>
+          <t>2.73</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>92.54</t>
+          <t>96.55</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>5.06</t>
+          <t>2.10</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.0187</t>
+          <t>0.0573</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21">
@@ -1344,36 +1361,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>014345</t>
+          <t>011927</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>鹏华中证500指数增强C</t>
+          <t>博时汇誉回报混合A</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>1.06</t>
+          <t>1.04</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>89.13</t>
+          <t>80.45</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>5.42</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.0175</t>
+          <t>0.0564</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22">
@@ -1382,36 +1399,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>003241</t>
+          <t>014133</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>创金合信量化发现灵活配置混合A</t>
+          <t>工银中证500六个月持有指数增强A</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0.96</t>
+          <t>1.64</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>91.22</t>
+          <t>93.75</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>1.27</t>
+          <t>1.96</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>0.0122</t>
+          <t>0.0321</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23">
@@ -1420,36 +1437,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>014134</t>
+          <t>012501</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>工银中证500六个月持有指数增强C</t>
+          <t>博时汇荣回报灵活配置混合C</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>1.07</t>
+          <t>0.40</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>94.04</t>
+          <t>59.93</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>1.07</t>
+          <t>5.03</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>0.0114</t>
+          <t>0.0201</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24">
@@ -1458,36 +1475,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>009438</t>
+          <t>006441</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>信达澳银科技创新一年定期开放混合C</t>
+          <t>中信建投中证500指数增强C</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0.76</t>
+          <t>2.25</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>94.51</t>
+          <t>93.60</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>0.87</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>0.0095</t>
+          <t>0.0196</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25">
@@ -1496,36 +1513,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>010154</t>
+          <t>011306</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>中加中证500指数增强C</t>
+          <t>富国低碳新经济混合C</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0.60</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>94.12</t>
+          <t>92.54</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>1.48</t>
+          <t>7.55</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>0.0089</t>
+          <t>0.0189</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26">
@@ -1534,36 +1551,36 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>003242</t>
+          <t>006440</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>创金合信量化发现灵活配置混合C</t>
+          <t>中信建投中证500指数增强A</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0.59</t>
+          <t>2.14</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>91.22</t>
+          <t>93.60</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>1.27</t>
+          <t>0.87</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>0.0075</t>
+          <t>0.0186</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27">
@@ -1572,36 +1589,36 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>010153</t>
+          <t>014134</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>中加中证500指数增强A</t>
+          <t>工银中证500六个月持有指数增强C</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>0.50</t>
+          <t>0.90</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>94.12</t>
+          <t>93.75</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>1.48</t>
+          <t>1.96</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>0.0074</t>
+          <t>0.0176</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28">
@@ -1610,36 +1627,36 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>012297</t>
+          <t>009438</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>东兴宸瑞量化混合型证券投资基金A</t>
+          <t>信澳科技创新一年定期开放混合C</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>0.58</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>89.73</t>
+          <t>96.55</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>1.62</t>
+          <t>2.10</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>0.0044</t>
+          <t>0.0122</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29">
@@ -1648,36 +1665,36 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>014954</t>
+          <t>011928</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>信达澳银研究优选混合C</t>
+          <t>博时汇誉回报混合C</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>94.49</t>
+          <t>80.45</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>1.33</t>
+          <t>5.42</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>0.0013</t>
+          <t>0.0065</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30">
@@ -1686,36 +1703,36 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>012298</t>
+          <t>011178</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>东兴宸瑞量化混合型证券投资基金C</t>
+          <t>博时汇融回报一年持有期混合C</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>89.73</t>
+          <t>60.91</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>1.62</t>
+          <t>4.25</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>0.0011</t>
+          <t>0.0055</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31">
@@ -1724,32 +1741,32 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>005021</t>
+          <t>014954</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>渤海汇金量化汇盈灵活配置混合</t>
+          <t>信澳研究优选混合C</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.22</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>91.85</t>
+          <t>89.66</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>4.04</t>
+          <t>1.50</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>0.0004</t>
+          <t>0.0033</t>
         </is>
       </c>
       <c r="H31" t="n">
@@ -1762,6 +1779,1202 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001410</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>信达澳银新能源产业股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>148.83</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.9199</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010966</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国成长领航混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>52.43</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.7407</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001985</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国低碳新经济混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>33.95</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.7179</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010662</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国均衡优选混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>50.86</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.05</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.5461</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009693</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国积极成长一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>18.99</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>95.11</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.9628</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>012608</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>信达澳银领先智选混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>41.50</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5520</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000478</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>建信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>57.26</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>83.86</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5268</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011188</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>信达澳银星奕混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>38.66</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5064</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010861</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>长信企业优选一年持有期灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>9.85</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>76.10</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2847</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>006257</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>信达澳银先进智造股票</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>24.66</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.73</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2614</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005589</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>长信企业精选两年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>77.24</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1817</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009511</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>信达澳银研究优选混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>10.08</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1341</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011223</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>信达澳银星奕混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>9.36</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1226</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>233009</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>大摩多因子精选策略混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>7.12</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>86.73</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1168</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>014344</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>鹏华中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>89.13</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0668</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009437</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>信达澳银科技创新一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0586</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>005633</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>建信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>83.86</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0343</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>014133</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>工银中证500六个月持有指数增强A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0205</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011306</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>富国低碳新经济混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0187</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>014345</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>鹏华中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>89.13</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0175</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>003241</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>创金合信量化发现灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>91.22</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>014134</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>工银中证500六个月持有指数增强C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0114</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>009438</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>信达澳银科技创新一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010154</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中加中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.12</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>003242</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>创金合信量化发现灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>91.22</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010153</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>中加中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.12</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>012297</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>东兴宸瑞量化混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>89.73</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>014954</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>信达澳银研究优选混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>012298</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>东兴宸瑞量化混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>89.73</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>005021</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>渤海汇金量化汇盈灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>91.85</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2304,480 +3517,6 @@
       </c>
       <c r="H14" t="n">
         <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>001410</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>信达澳银新能源产业股票</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>174.77</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.49</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>1.50</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>2.6216</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>012608</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>信达澳银领先智选混合型证券投资基金</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>48.22</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.51</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1.79</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.8631</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>011188</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>信达澳银星奕混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>46.87</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>94.49</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1.68</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.7874</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>006257</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>信达澳银先进智造股票</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>35.79</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>94.50</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1.55</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.5547</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>007484</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>信达澳银核心科技混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>14.90</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>94.49</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>1.38</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.2056</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>011223</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>信达澳银星奕混合C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>11.75</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>94.49</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>1.68</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.1974</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>009511</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>信达澳银研究优选混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>12.31</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>94.50</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>1.59</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.1957</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>009437</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>信达澳银科技创新一年定期开放混合A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>9.92</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>99.89</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>1.71</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.1696</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>009438</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>信达澳银科技创新一年定期开放混合C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>1.07</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>99.89</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>1.71</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0183</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>005437</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>易方达易百智能量化策略灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>1.72</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>93.44</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>0.87</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0150</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>005438</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>易方达易百智能量化策略灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.72</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>93.44</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>0.87</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0063</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -2812,7 +3551,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -2852,26 +3591,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>148.10</t>
+          <t>174.77</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>88.58</t>
+          <t>94.49</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.51</t>
+          <t>1.50</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.2363</t>
+          <t>2.6216</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -2890,26 +3629,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>49.92</t>
+          <t>48.22</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>71.01</t>
+          <t>94.51</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.45</t>
+          <t>1.79</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.7238</t>
+          <t>0.8631</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -2918,36 +3657,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>006257</t>
+          <t>011188</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>信达澳银先进智造股票</t>
+          <t>信达澳银星奕混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>31.51</t>
+          <t>46.87</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>85.54</t>
+          <t>94.49</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.51</t>
+          <t>1.68</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.4758</t>
+          <t>0.7874</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -2956,36 +3695,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>003318</t>
+          <t>006257</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>景顺长城中证500行业中性低波动指数</t>
+          <t>信达澳银先进智造股票</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>16.13</t>
+          <t>35.79</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>94.16</t>
+          <t>94.50</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1.27</t>
+          <t>1.55</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.2049</t>
+          <t>0.5547</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -3004,26 +3743,26 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>11.59</t>
+          <t>14.90</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>84.01</t>
+          <t>94.49</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1.51</t>
+          <t>1.38</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.1750</t>
+          <t>0.2056</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -3032,36 +3771,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>009511</t>
+          <t>011223</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>信达澳银研究优选混合</t>
+          <t>信达澳银星奕混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>11.23</t>
+          <t>11.75</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>87.04</t>
+          <t>94.49</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1.51</t>
+          <t>1.68</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.1696</t>
+          <t>0.1974</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -3070,36 +3809,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>009437</t>
+          <t>009511</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>信达澳银科技创新一年定期开放混合A</t>
+          <t>信达澳银研究优选混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>6.90</t>
+          <t>12.31</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>89.74</t>
+          <t>94.50</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1.51</t>
+          <t>1.59</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.1042</t>
+          <t>0.1957</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9">
@@ -3108,32 +3847,32 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>160620</t>
+          <t>009437</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>鹏华中证A股资源产业指数（LOF）</t>
+          <t>信达澳银科技创新一年定期开放混合A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>3.29</t>
+          <t>9.92</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>94.18</t>
+          <t>99.89</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>3.09</t>
+          <t>1.71</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.1017</t>
+          <t>0.1696</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -3146,36 +3885,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>510170</t>
+          <t>009438</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>国联安上证大宗商品股票ETF</t>
+          <t>信达澳银科技创新一年定期开放混合C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2.64</t>
+          <t>1.07</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>97.26</t>
+          <t>99.89</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2.81</t>
+          <t>1.71</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0742</t>
+          <t>0.0183</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11">
@@ -3184,36 +3923,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>512260</t>
+          <t>005437</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>华安中证500行业中性低波动ETF</t>
+          <t>易方达易百智能量化策略灵活配置混合A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1.41</t>
+          <t>1.72</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>95.81</t>
+          <t>93.44</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>1.32</t>
+          <t>0.87</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0186</t>
+          <t>0.0150</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12">
@@ -3222,36 +3961,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>009438</t>
+          <t>005438</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>信达澳银科技创新一年定期开放混合C</t>
+          <t>易方达易百智能量化策略灵活配置混合C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>0.72</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>89.74</t>
+          <t>93.44</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>1.51</t>
+          <t>0.87</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0159</t>
+          <t>0.0063</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -3260,6 +3999,480 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001410</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>信达澳银新能源产业股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>148.10</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.58</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.2363</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>012608</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>信达澳银领先智选混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>49.92</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>71.01</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7238</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006257</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>信达澳银先进智造股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>31.51</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>85.54</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4758</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>003318</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>景顺长城中证500行业中性低波动指数</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>16.13</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2049</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>007484</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>信达澳银核心科技混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>11.59</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>84.01</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1750</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009511</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>信达澳银研究优选混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>11.23</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>87.04</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1696</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009437</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>信达澳银科技创新一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.90</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.74</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1042</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>160620</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>鹏华中证A股资源产业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1017</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>510170</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国联安上证大宗商品股票ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>97.26</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0742</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>512260</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华安中证500行业中性低波动ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>95.81</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009438</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>信达澳银科技创新一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>89.74</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0159</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/600673-东阳光.xlsx
+++ b/数据整理/stocks/A股/上证主板/600673-东阳光.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="D2" t="n">
-        <v>19.96</v>
+        <v>20.27</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>30</v>
       </c>
       <c r="D3" t="n">
-        <v>10.85</v>
+        <v>19.96</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="D4" t="n">
-        <v>4.44</v>
+        <v>10.85</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D5" t="n">
-        <v>5.63</v>
+        <v>4.44</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>11</v>
       </c>
       <c r="D6" t="n">
-        <v>4.3</v>
+        <v>5.63</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>11</v>
+      </c>
+      <c r="D7" t="n">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>1</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -588,7 +605,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -649,22 +666,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>96.44</t>
+          <t>91.53</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>52.92</t>
+          <t>68.57</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.06</t>
+          <t>5.78</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>4.8799</t>
+          <t>5.2904</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -687,26 +704,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>46.16</t>
+          <t>44.66</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>88.70</t>
+          <t>90.56</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>6.35</t>
+          <t>7.97</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2.9312</t>
+          <t>3.5594</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -725,26 +742,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>44.52</t>
+          <t>42.60</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>87.36</t>
+          <t>89.38</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5.72</t>
+          <t>7.79</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2.5465</t>
+          <t>3.3185</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -763,26 +780,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>116.40</t>
+          <t>108.36</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>93.65</t>
+          <t>94.51</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>1.71</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2.2116</t>
+          <t>1.8530</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -801,26 +818,26 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>22.20</t>
+          <t>18.93</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>92.54</t>
+          <t>93.83</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>7.55</t>
+          <t>7.75</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>1.6761</t>
+          <t>1.4671</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -839,22 +856,22 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>25.95</t>
+          <t>24.28</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>60.91</t>
+          <t>77.15</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>4.25</t>
+          <t>5.53</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>1.1029</t>
+          <t>1.3427</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -867,36 +884,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>009693</t>
+          <t>014254</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>富国积极成长一年定期开放混合</t>
+          <t>信澳智远三年持有期混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>12.30</t>
+          <t>35.41</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>97.80</t>
+          <t>89.71</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>7.66</t>
+          <t>1.64</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.9422</t>
+          <t>0.5807</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -905,36 +922,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>014254</t>
+          <t>012608</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>信澳智远三年持有期混合A</t>
+          <t>信澳领先智选混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>36.34</t>
+          <t>32.51</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>86.96</t>
+          <t>93.51</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>1.64</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.6541</t>
+          <t>0.5332</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10">
@@ -943,36 +960,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>012608</t>
+          <t>009693</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>信澳领先智选混合</t>
+          <t>富国积极成长一年定期开放混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>33.22</t>
+          <t>12.47</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>92.57</t>
+          <t>98.05</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>1.86</t>
+          <t>3.71</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.6179</t>
+          <t>0.4626</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11">
@@ -981,36 +998,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>007484</t>
+          <t>013113</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>信澳核心科技混合</t>
+          <t>博时博盈稳健6个月持有期混合A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>23.33</t>
+          <t>19.35</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>94.48</t>
+          <t>22.15</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2.03</t>
+          <t>2.17</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.4736</t>
+          <t>0.4199</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12">
@@ -1029,26 +1046,26 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>23.94</t>
+          <t>23.11</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>93.29</t>
+          <t>94.27</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>1.84</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.4405</t>
+          <t>0.3813</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13">
@@ -1057,36 +1074,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>006257</t>
+          <t>012500</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>信澳先进智造股票</t>
+          <t>博时汇荣回报灵活配置混合A</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>25.85</t>
+          <t>5.46</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>92.65</t>
+          <t>90.69</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>1.43</t>
+          <t>5.35</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.3697</t>
+          <t>0.2921</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14">
@@ -1095,36 +1112,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>012500</t>
+          <t>013114</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>博时汇荣回报灵活配置混合A</t>
+          <t>博时博盈稳健6个月持有期混合C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>5.88</t>
+          <t>10.95</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>59.93</t>
+          <t>22.15</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>5.03</t>
+          <t>2.17</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.2958</t>
+          <t>0.2376</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15">
@@ -1133,36 +1150,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>009511</t>
+          <t>011306</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>信澳研究优选混合A</t>
+          <t>富国低碳新经济混合C</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>10.05</t>
+          <t>1.87</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>89.66</t>
+          <t>93.83</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>1.50</t>
+          <t>7.75</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.1508</t>
+          <t>0.1449</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16">
@@ -1181,26 +1198,26 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>7.06</t>
+          <t>6.78</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>93.29</t>
+          <t>94.27</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>1.84</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.1299</t>
+          <t>0.1119</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17">
@@ -1219,26 +1236,26 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>6.26</t>
+          <t>6.20</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>86.96</t>
+          <t>89.71</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>1.64</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.1127</t>
+          <t>0.1017</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18">
@@ -1257,26 +1274,26 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>1.77</t>
+          <t>1.72</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>67.69</t>
+          <t>79.42</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>5.15</t>
+          <t>5.22</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.0912</t>
+          <t>0.0898</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19">
@@ -1285,36 +1302,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>012147</t>
+          <t>009437</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>富国大盘核心资产混合</t>
+          <t>信澳科技创新一年定期开放混合A</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2.01</t>
+          <t>2.64</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>70.23</t>
+          <t>96.96</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>3.12</t>
+          <t>1.66</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.0627</t>
+          <t>0.0438</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20">
@@ -1323,36 +1340,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>009437</t>
+          <t>012501</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>信澳科技创新一年定期开放混合A</t>
+          <t>博时汇荣回报灵活配置混合C</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2.73</t>
+          <t>0.38</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>96.55</t>
+          <t>90.69</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2.10</t>
+          <t>5.35</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.0573</t>
+          <t>0.0203</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21">
@@ -1361,36 +1378,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>011927</t>
+          <t>009438</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>博时汇誉回报混合A</t>
+          <t>信澳科技创新一年定期开放混合C</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>1.04</t>
+          <t>0.55</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>80.45</t>
+          <t>96.96</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>5.42</t>
+          <t>1.66</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.0564</t>
+          <t>0.0091</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22">
@@ -1399,378 +1416,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>014133</t>
+          <t>011178</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>工银中证500六个月持有指数增强A</t>
+          <t>博时汇融回报一年持有期混合C</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>1.64</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>93.75</t>
+          <t>77.15</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>1.96</t>
+          <t>5.53</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>0.0321</t>
+          <t>0.0066</t>
         </is>
       </c>
       <c r="H22" t="n">
         <v>3</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>012501</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>博时汇荣回报灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>0.40</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>59.93</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>5.03</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.0201</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>006441</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>中信建投中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>2.25</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>93.60</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>0.87</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.0196</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>011306</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>富国低碳新经济混合C</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>0.25</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>92.54</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>7.55</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.0189</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>006440</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>中信建投中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>2.14</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>93.60</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>0.87</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.0186</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>014134</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>工银中证500六个月持有指数增强C</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>0.90</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>93.75</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>1.96</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.0176</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>009438</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>信澳科技创新一年定期开放混合C</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>0.58</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>96.55</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>2.10</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.0122</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>011928</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>博时汇誉回报混合C</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>0.12</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>80.45</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>5.42</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>0.0065</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>011178</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>博时汇融回报一年持有期混合C</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>0.13</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>60.91</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>4.25</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>0.0055</t>
-        </is>
-      </c>
-      <c r="H30" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>014954</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>信澳研究优选混合C</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>0.22</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>89.66</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>1.50</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>0.0033</t>
-        </is>
-      </c>
-      <c r="H31" t="n">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1835,36 +1510,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001410</t>
+          <t>011056</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>信达澳银新能源产业股票</t>
+          <t>博时汇兴回报一年持有期灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>148.83</t>
+          <t>96.44</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.48</t>
+          <t>52.92</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.29</t>
+          <t>5.06</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.9199</t>
+          <t>4.8799</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -1883,26 +1558,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>52.43</t>
+          <t>46.16</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>92.87</t>
+          <t>88.70</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.32</t>
+          <t>6.35</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.7407</t>
+          <t>2.9312</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -1911,32 +1586,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>001985</t>
+          <t>010662</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>富国低碳新经济混合A</t>
+          <t>富国均衡优选混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>33.95</t>
+          <t>44.52</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>92.54</t>
+          <t>87.36</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5.06</t>
+          <t>5.72</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.7179</t>
+          <t>2.5465</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -1949,36 +1624,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>010662</t>
+          <t>001410</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>富国均衡优选混合</t>
+          <t>信澳新能源产业股票</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>50.86</t>
+          <t>116.40</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>90.05</t>
+          <t>93.65</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.04</t>
+          <t>1.90</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1.5461</t>
+          <t>2.2116</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -1987,36 +1662,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>009693</t>
+          <t>001985</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>富国积极成长一年定期开放混合</t>
+          <t>富国低碳新经济混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>18.99</t>
+          <t>22.20</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>95.11</t>
+          <t>92.54</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>5.07</t>
+          <t>7.55</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.9628</t>
+          <t>1.6761</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -2025,36 +1700,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>012608</t>
+          <t>011177</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>信达澳银领先智选混合型证券投资基金</t>
+          <t>博时汇融回报一年持有期混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>41.50</t>
+          <t>25.95</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>94.47</t>
+          <t>60.91</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1.33</t>
+          <t>4.25</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.5520</t>
+          <t>1.1029</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8">
@@ -2063,36 +1738,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>000478</t>
+          <t>009693</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>建信中证500指数增强A</t>
+          <t>富国积极成长一年定期开放混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>57.26</t>
+          <t>12.30</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>83.86</t>
+          <t>97.80</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0.92</t>
+          <t>7.66</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.5268</t>
+          <t>0.9422</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -2101,36 +1776,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>011188</t>
+          <t>014254</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>信达澳银星奕混合A</t>
+          <t>信澳智远三年持有期混合A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>38.66</t>
+          <t>36.34</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>94.47</t>
+          <t>86.96</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>1.31</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.5064</t>
+          <t>0.6541</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10">
@@ -2139,36 +1814,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>010861</t>
+          <t>012608</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>长信企业优选一年持有期灵活配置混合</t>
+          <t>信澳领先智选混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>9.85</t>
+          <t>33.22</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>76.10</t>
+          <t>92.57</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2.89</t>
+          <t>1.86</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.2847</t>
+          <t>0.6179</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11">
@@ -2177,36 +1852,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>006257</t>
+          <t>007484</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>信达澳银先进智造股票</t>
+          <t>信澳核心科技混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>24.66</t>
+          <t>23.33</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>90.73</t>
+          <t>94.48</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>1.06</t>
+          <t>2.03</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.2614</t>
+          <t>0.4736</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12">
@@ -2215,36 +1890,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>005589</t>
+          <t>011188</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>长信企业精选两年定期开放灵活配置混合</t>
+          <t>信澳星奕混合A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>6.33</t>
+          <t>23.94</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>77.24</t>
+          <t>93.29</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2.87</t>
+          <t>1.84</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.1817</t>
+          <t>0.4405</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13">
@@ -2253,36 +1928,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>009511</t>
+          <t>006257</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>信达澳银研究优选混合</t>
+          <t>信澳先进智造股票</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>10.08</t>
+          <t>25.85</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>94.49</t>
+          <t>92.65</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>1.33</t>
+          <t>1.43</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.1341</t>
+          <t>0.3697</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14">
@@ -2291,36 +1966,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>011223</t>
+          <t>012500</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>信达澳银星奕混合C</t>
+          <t>博时汇荣回报灵活配置混合A</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>9.36</t>
+          <t>5.88</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>94.47</t>
+          <t>59.93</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>1.31</t>
+          <t>5.03</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.1226</t>
+          <t>0.2958</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15">
@@ -2329,36 +2004,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>233009</t>
+          <t>009511</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>大摩多因子精选策略混合</t>
+          <t>信澳研究优选混合A</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>7.12</t>
+          <t>10.05</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>86.73</t>
+          <t>89.66</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>1.64</t>
+          <t>1.50</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.1168</t>
+          <t>0.1508</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16">
@@ -2367,36 +2042,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>014344</t>
+          <t>011223</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>鹏华中证500指数增强A</t>
+          <t>信澳星奕混合C</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>4.05</t>
+          <t>7.06</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>89.13</t>
+          <t>93.29</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>1.84</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.0668</t>
+          <t>0.1299</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17">
@@ -2405,36 +2080,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>009437</t>
+          <t>014255</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>信达澳银科技创新一年定期开放混合A</t>
+          <t>信澳智远三年持有期混合C</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>4.69</t>
+          <t>6.26</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>94.51</t>
+          <t>86.96</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.0586</t>
+          <t>0.1127</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18">
@@ -2443,36 +2118,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>005633</t>
+          <t>004448</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>建信中证500指数增强C</t>
+          <t>博时汇智回报灵活配置混合</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>3.73</t>
+          <t>1.77</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>83.86</t>
+          <t>67.69</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>0.92</t>
+          <t>5.15</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.0343</t>
+          <t>0.0912</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19">
@@ -2481,36 +2156,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>014133</t>
+          <t>012147</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>工银中证500六个月持有指数增强A</t>
+          <t>富国大盘核心资产混合</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>1.92</t>
+          <t>2.01</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>94.04</t>
+          <t>70.23</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>1.07</t>
+          <t>3.12</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.0205</t>
+          <t>0.0627</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20">
@@ -2519,36 +2194,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>011306</t>
+          <t>009437</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>富国低碳新经济混合C</t>
+          <t>信澳科技创新一年定期开放混合A</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0.37</t>
+          <t>2.73</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>92.54</t>
+          <t>96.55</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>5.06</t>
+          <t>2.10</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.0187</t>
+          <t>0.0573</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21">
@@ -2557,36 +2232,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>014345</t>
+          <t>011927</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>鹏华中证500指数增强C</t>
+          <t>博时汇誉回报混合A</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>1.06</t>
+          <t>1.04</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>89.13</t>
+          <t>80.45</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>5.42</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.0175</t>
+          <t>0.0564</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22">
@@ -2595,36 +2270,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>003241</t>
+          <t>014133</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>创金合信量化发现灵活配置混合A</t>
+          <t>工银中证500六个月持有指数增强A</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0.96</t>
+          <t>1.64</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>91.22</t>
+          <t>93.75</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>1.27</t>
+          <t>1.96</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>0.0122</t>
+          <t>0.0321</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23">
@@ -2633,36 +2308,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>014134</t>
+          <t>012501</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>工银中证500六个月持有指数增强C</t>
+          <t>博时汇荣回报灵活配置混合C</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>1.07</t>
+          <t>0.40</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>94.04</t>
+          <t>59.93</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>1.07</t>
+          <t>5.03</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>0.0114</t>
+          <t>0.0201</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24">
@@ -2671,36 +2346,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>009438</t>
+          <t>006441</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>信达澳银科技创新一年定期开放混合C</t>
+          <t>中信建投中证500指数增强C</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0.76</t>
+          <t>2.25</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>94.51</t>
+          <t>93.60</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>0.87</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>0.0095</t>
+          <t>0.0196</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25">
@@ -2709,36 +2384,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>010154</t>
+          <t>011306</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>中加中证500指数增强C</t>
+          <t>富国低碳新经济混合C</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0.60</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>94.12</t>
+          <t>92.54</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>1.48</t>
+          <t>7.55</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>0.0089</t>
+          <t>0.0189</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26">
@@ -2747,36 +2422,36 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>003242</t>
+          <t>006440</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>创金合信量化发现灵活配置混合C</t>
+          <t>中信建投中证500指数增强A</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0.59</t>
+          <t>2.14</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>91.22</t>
+          <t>93.60</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>1.27</t>
+          <t>0.87</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>0.0075</t>
+          <t>0.0186</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27">
@@ -2785,36 +2460,36 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>010153</t>
+          <t>014134</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>中加中证500指数增强A</t>
+          <t>工银中证500六个月持有指数增强C</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>0.50</t>
+          <t>0.90</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>94.12</t>
+          <t>93.75</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>1.48</t>
+          <t>1.96</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>0.0074</t>
+          <t>0.0176</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28">
@@ -2823,36 +2498,36 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>012297</t>
+          <t>009438</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>东兴宸瑞量化混合型证券投资基金A</t>
+          <t>信澳科技创新一年定期开放混合C</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>0.58</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>89.73</t>
+          <t>96.55</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>1.62</t>
+          <t>2.10</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>0.0044</t>
+          <t>0.0122</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29">
@@ -2861,36 +2536,36 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>014954</t>
+          <t>011928</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>信达澳银研究优选混合C</t>
+          <t>博时汇誉回报混合C</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>94.49</t>
+          <t>80.45</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>1.33</t>
+          <t>5.42</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>0.0013</t>
+          <t>0.0065</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30">
@@ -2899,36 +2574,36 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>012298</t>
+          <t>011178</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>东兴宸瑞量化混合型证券投资基金C</t>
+          <t>博时汇融回报一年持有期混合C</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>89.73</t>
+          <t>60.91</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>1.62</t>
+          <t>4.25</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>0.0011</t>
+          <t>0.0055</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31">
@@ -2937,32 +2612,32 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>005021</t>
+          <t>014954</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>渤海汇金量化汇盈灵活配置混合</t>
+          <t>信澳研究优选混合C</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.22</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>91.85</t>
+          <t>89.66</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>4.04</t>
+          <t>1.50</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>0.0004</t>
+          <t>0.0033</t>
         </is>
       </c>
       <c r="H31" t="n">
@@ -2975,6 +2650,1202 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001410</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>信达澳银新能源产业股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>148.83</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.9199</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010966</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国成长领航混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>52.43</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.7407</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001985</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国低碳新经济混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>33.95</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.7179</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010662</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国均衡优选混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>50.86</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.05</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.5461</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009693</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国积极成长一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>18.99</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>95.11</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.9628</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>012608</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>信达澳银领先智选混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>41.50</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5520</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000478</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>建信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>57.26</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>83.86</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5268</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011188</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>信达澳银星奕混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>38.66</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5064</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010861</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>长信企业优选一年持有期灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>9.85</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>76.10</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2847</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>006257</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>信达澳银先进智造股票</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>24.66</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.73</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2614</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005589</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>长信企业精选两年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>77.24</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1817</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009511</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>信达澳银研究优选混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>10.08</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1341</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011223</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>信达澳银星奕混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>9.36</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1226</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>233009</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>大摩多因子精选策略混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>7.12</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>86.73</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1168</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>014344</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>鹏华中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>89.13</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0668</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009437</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>信达澳银科技创新一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0586</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>005633</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>建信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>83.86</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0343</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>014133</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>工银中证500六个月持有指数增强A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0205</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011306</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>富国低碳新经济混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0187</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>014345</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>鹏华中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>89.13</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0175</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>003241</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>创金合信量化发现灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>91.22</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>014134</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>工银中证500六个月持有指数增强C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0114</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>009438</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>信达澳银科技创新一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010154</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中加中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.12</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>003242</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>创金合信量化发现灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>91.22</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010153</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>中加中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.12</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>012297</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>东兴宸瑞量化混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>89.73</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>014954</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>信达澳银研究优选混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>012298</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>东兴宸瑞量化混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>89.73</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>005021</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>渤海汇金量化汇盈灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>91.85</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3517,480 +4388,6 @@
       </c>
       <c r="H14" t="n">
         <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>001410</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>信达澳银新能源产业股票</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>174.77</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.49</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>1.50</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>2.6216</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>012608</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>信达澳银领先智选混合型证券投资基金</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>48.22</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.51</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1.79</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.8631</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>011188</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>信达澳银星奕混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>46.87</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>94.49</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1.68</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.7874</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>006257</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>信达澳银先进智造股票</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>35.79</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>94.50</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1.55</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.5547</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>007484</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>信达澳银核心科技混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>14.90</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>94.49</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>1.38</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.2056</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>011223</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>信达澳银星奕混合C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>11.75</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>94.49</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>1.68</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.1974</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>009511</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>信达澳银研究优选混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>12.31</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>94.50</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>1.59</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.1957</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>009437</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>信达澳银科技创新一年定期开放混合A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>9.92</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>99.89</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>1.71</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.1696</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>009438</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>信达澳银科技创新一年定期开放混合C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>1.07</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>99.89</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>1.71</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0183</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>005437</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>易方达易百智能量化策略灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>1.72</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>93.44</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>0.87</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0150</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>005438</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>易方达易百智能量化策略灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.72</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>93.44</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>0.87</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0063</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -4025,7 +4422,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -4065,26 +4462,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>148.10</t>
+          <t>174.77</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>88.58</t>
+          <t>94.49</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.51</t>
+          <t>1.50</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.2363</t>
+          <t>2.6216</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -4103,26 +4500,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>49.92</t>
+          <t>48.22</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>71.01</t>
+          <t>94.51</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.45</t>
+          <t>1.79</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.7238</t>
+          <t>0.8631</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -4131,36 +4528,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>006257</t>
+          <t>011188</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>信达澳银先进智造股票</t>
+          <t>信达澳银星奕混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>31.51</t>
+          <t>46.87</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>85.54</t>
+          <t>94.49</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.51</t>
+          <t>1.68</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.4758</t>
+          <t>0.7874</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -4169,36 +4566,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>003318</t>
+          <t>006257</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>景顺长城中证500行业中性低波动指数</t>
+          <t>信达澳银先进智造股票</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>16.13</t>
+          <t>35.79</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>94.16</t>
+          <t>94.50</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1.27</t>
+          <t>1.55</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.2049</t>
+          <t>0.5547</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -4217,26 +4614,26 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>11.59</t>
+          <t>14.90</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>84.01</t>
+          <t>94.49</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1.51</t>
+          <t>1.38</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.1750</t>
+          <t>0.2056</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -4245,36 +4642,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>009511</t>
+          <t>011223</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>信达澳银研究优选混合</t>
+          <t>信达澳银星奕混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>11.23</t>
+          <t>11.75</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>87.04</t>
+          <t>94.49</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1.51</t>
+          <t>1.68</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.1696</t>
+          <t>0.1974</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -4283,36 +4680,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>009437</t>
+          <t>009511</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>信达澳银科技创新一年定期开放混合A</t>
+          <t>信达澳银研究优选混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>6.90</t>
+          <t>12.31</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>89.74</t>
+          <t>94.50</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1.51</t>
+          <t>1.59</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.1042</t>
+          <t>0.1957</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9">
@@ -4321,32 +4718,32 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>160620</t>
+          <t>009437</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>鹏华中证A股资源产业指数（LOF）</t>
+          <t>信达澳银科技创新一年定期开放混合A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>3.29</t>
+          <t>9.92</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>94.18</t>
+          <t>99.89</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>3.09</t>
+          <t>1.71</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.1017</t>
+          <t>0.1696</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -4359,36 +4756,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>510170</t>
+          <t>009438</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>国联安上证大宗商品股票ETF</t>
+          <t>信达澳银科技创新一年定期开放混合C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2.64</t>
+          <t>1.07</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>97.26</t>
+          <t>99.89</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2.81</t>
+          <t>1.71</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0742</t>
+          <t>0.0183</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11">
@@ -4397,36 +4794,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>512260</t>
+          <t>005437</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>华安中证500行业中性低波动ETF</t>
+          <t>易方达易百智能量化策略灵活配置混合A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1.41</t>
+          <t>1.72</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>95.81</t>
+          <t>93.44</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>1.32</t>
+          <t>0.87</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0186</t>
+          <t>0.0150</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12">
@@ -4435,36 +4832,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>009438</t>
+          <t>005438</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>信达澳银科技创新一年定期开放混合C</t>
+          <t>易方达易百智能量化策略灵活配置混合C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>0.72</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>89.74</t>
+          <t>93.44</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>1.51</t>
+          <t>0.87</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0159</t>
+          <t>0.0063</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -4473,6 +4870,480 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001410</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>信达澳银新能源产业股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>148.10</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.58</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.2363</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>012608</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>信达澳银领先智选混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>49.92</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>71.01</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7238</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006257</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>信达澳银先进智造股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>31.51</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>85.54</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4758</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>003318</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>景顺长城中证500行业中性低波动指数</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>16.13</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2049</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>007484</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>信达澳银核心科技混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>11.59</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>84.01</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1750</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009511</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>信达澳银研究优选混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>11.23</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>87.04</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1696</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009437</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>信达澳银科技创新一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.90</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.74</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1042</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>160620</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>鹏华中证A股资源产业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1017</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>510170</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国联安上证大宗商品股票ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>97.26</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0742</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>512260</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华安中证500行业中性低波动ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>95.81</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009438</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>信达澳银科技创新一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>89.74</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0159</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
